--- a/biology/Médecine/Vieil_hôpital_de_Parme/Vieil_hôpital_de_Parme.xlsx
+++ b/biology/Médecine/Vieil_hôpital_de_Parme/Vieil_hôpital_de_Parme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vieil_h%C3%B4pital_de_Parme</t>
+          <t>Vieil_hôpital_de_Parme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ospedale Vecchio (en français, Vieil Hôpital) est un monument situé dans le centre de Parme, en Italie. Il  était l'hôpital de la ville du XVe siècle jusqu'en 1926.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vieil_h%C3%B4pital_de_Parme</t>
+          <t>Vieil_hôpital_de_Parme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Emplacement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans le quartier d'Oltretorrente, le long de l'actuelle rue Massimo d'Azeglio, c'était l'hôpital de la ville du XVe siècle jusqu'en 1926. Très apprécié de la population de la ville pour les services humanitaires rendus au cours des siècles, il l'est encore aujourd'hui pour les institutions culturelles qu'il abrite, des archives aux bibliothèques en passant par les clubs.
 Rare exemple d'architecture hospitalière, il a été à plusieurs reprises au centre des débats politiques dans la recherche d'une destination conforme à son importance historique, architecturale et sociale. Actuellement, le bâtiment est le siège de nombreuses institutions culturelles, dont les Archives de l'État, la Bibliothèque municipale, la Bibliothèque Bizzozero, la Bibliothèque Balestrazzi et la Vidéothèque municipale.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vieil_h%C3%B4pital_de_Parme</t>
+          <t>Vieil_hôpital_de_Parme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1201, Rodolfo Tanzi, un chevalier teutonique, fonda un hôpital dans quelques maisons du borgo Taschieri (aujourd'hui borgo Pietro Cocconi), près de la Porta Santa Croce. L'hôpital était dirigé par un groupe d'hommes et de femmes qui devaient vivre en communauté, donner leurs biens et y vivre pour servir les malades, les pèlerins et les enfants orphelins. Elle n'accueillait que les malades de classe sociale pauvre puisque ceux qui en avaient les moyens pouvaient se soigner chez eux.
 Rodolfo Tanzi le dirigea jusqu'en 1216 (année probable de sa mort). Au cours des années suivantes, le nombre de malades dans le besoin a augmenté de manière à rendre les chambres disponibles insuffisantes, de sorte que vers 1250, il a été décidé de construire une nouvelle structure pour les enfants trouvés, qui s'appelait alors Degli Esposti, à une courte distance de l'hôpital mère, situé sur l'actuelle via d'Azeglio. Le but, selon les recteurs, n'était pas seulement d'héberger et de nourrir les enfants trouvés mais aussi d'aider les pauvres et les prisonniers, pour lesquels deux pains, du vin et de la viande étaient envoyés une fois par semaine.
